--- a/in-progress/Natarajan_2013_Macromolecules/Reference_Tg_values.xlsx
+++ b/in-progress/Natarajan_2013_Macromolecules/Reference_Tg_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Natarajan_2013_Macromolecules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjany/Desktop/Duke Internship/ma302281/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53832CBA-28CE-4BE7-822A-262BF854C3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9971B11E-FF8B-E24E-A424-853B53F9834F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{930C8367-AE96-479A-9D45-3CA66124C917}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{930C8367-AE96-479A-9D45-3CA66124C917}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Abbreviation</t>
   </si>
   <si>
@@ -54,18 +51,6 @@
     <t>PEMA</t>
   </si>
   <si>
-    <t>Polystyrene</t>
-  </si>
-  <si>
-    <t>Poly(methyl methacrylate)</t>
-  </si>
-  <si>
-    <t>Poly(2-vinylpyridine)</t>
-  </si>
-  <si>
-    <t>Poly(ethyl methacrylate)</t>
-  </si>
-  <si>
     <t>Tg (deg C)</t>
   </si>
   <si>
@@ -73,14 +58,45 @@
   </si>
   <si>
     <t>http://polymerdatabase.com/polymer%20physics/Polymer%20Tg%20C.html</t>
+  </si>
+  <si>
+    <t>chemical name</t>
+  </si>
+  <si>
+    <t>polystyrene</t>
+  </si>
+  <si>
+    <t>poly(methylmethcrylate)</t>
+  </si>
+  <si>
+    <t>poly(2-vinylpyridine)</t>
+  </si>
+  <si>
+    <t>poly(ethylmethcrylate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,9 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,85 +446,85 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
